--- a/DNAssembly/assembly_input.xlsx
+++ b/DNAssembly/assembly_input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\git\automated-protocol-ot2\protocols\DNAssembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\git\DNAssembler\DNAssembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE9F030-D5B7-4360-9510-FD23AF1C6C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="well" sheetId="1" r:id="rId1"/>
@@ -20,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>pBB_Dm_p1_r18_t25</t>
-  </si>
-  <si>
     <t>plate</t>
   </si>
   <si>
@@ -148,22 +146,30 @@
     <t>L3S1P56</t>
   </si>
   <si>
-    <t>pBB_Dm_p1_r1_t25</t>
+    <t>DNA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NA_Dm_p1_r12_t23</t>
+    <t>Vector_volume</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DNA</t>
+    <t>p1_r1_DmpR_t22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1_r18_DmpR_t22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5_r12_DmpR_t25</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,6 +327,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -356,6 +379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,34 +571,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -580,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -594,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -611,16 +660,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -628,16 +677,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -645,16 +694,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -662,16 +711,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -679,16 +728,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -696,16 +745,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -713,16 +762,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -730,16 +779,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -747,16 +796,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -764,16 +813,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DNAssembly/assembly_input.xlsx
+++ b/DNAssembly/assembly_input.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\git\DNAssembler\DNAssembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE9F030-D5B7-4360-9510-FD23AF1C6C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320"/>
   </bookViews>
   <sheets>
     <sheet name="well" sheetId="1" r:id="rId1"/>
     <sheet name="part" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -150,27 +149,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Vector_volume</t>
+    <t>v1_p1_r1_DmpR_t22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>p1_r1_DmpR_t22</t>
+    <t>v1_p1_r18_DmpR_t22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>p1_r18_DmpR_t22</t>
+    <t>v1_p5_r12_DmpR_t25</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>p5_r12_DmpR_t25</t>
+    <t>MW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_1_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56_112_112_112_112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The MW or Volume is necessary.
+The Volume is dominant &gt; MW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +209,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -225,14 +248,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,23 +436,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -379,23 +471,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,53 +646,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:K3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/DNAssembly/assembly_input.xlsx
+++ b/DNAssembly/assembly_input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -149,36 +149,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v1_p1_r1_DmpR_t22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1_p1_r18_DmpR_t22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1_p5_r12_DmpR_t25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Volume</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1_1_1_1_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>56_112_112_112_112</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>The MW or Volume is necessary.
 The Volume is dominant &gt; MW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1_p1_r1_t22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1_p1_r18_t22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1_p5_r12_t25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_3_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2_3_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -325,6 +325,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -339,9 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,74 +647,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:K3"/>
+    <mergeCell ref="E2:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
